--- a/GATEWAY/A1#111ARIASPAXX/ARIA_SPA/CDA2VACC/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111ARIASPAXX/ARIA_SPA/CDA2VACC/1.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lispacloud.sharepoint.com/sites/FSE2.0-CDA2Vaccinazioni/Documenti condivisi/General/Accreditamento DTD/File per PULL REQUEST accreditamento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="430" documentId="11_7D6937CE5B238C1084F5D6E7B4F30CD41048D7EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38401749-8D14-4540-A13D-41BDE4898B8D}"/>
+  <xr:revisionPtr revIDLastSave="447" documentId="11_7D6937CE5B238C1084F5D6E7B4F30CD41048D7EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB4061EA-E6F0-44F1-B210-1969EFB499A4}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4602,9 +4602,6 @@
     <t>028a2a4367b34a71</t>
   </si>
   <si>
-    <t>Log analysis, correzione se applicabile e ritrasmissione del certificato vaccinale</t>
-  </si>
-  <si>
     <t>2023-07-05T11:33:46.027+00:00</t>
   </si>
   <si>
@@ -4623,9 +4620,6 @@
     <t>2.16.840.1.113883.2.9.2.30.4.4.4f334babf8f61d5c7335ffda69dcef648a78a011936cd8789d99aa84c4cd1735.b02eb4e43c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>Tramite log analysis che distingue la tipologia di errore, correzione e ritrasmissione del certificato vaccinale</t>
-  </si>
-  <si>
     <t>2023-07-11T10:21:07.448+00:00</t>
   </si>
   <si>
@@ -4660,6 +4654,13 @@
   </si>
   <si>
     <t>2023-07-13T17:28:13.287+00:00</t>
+  </si>
+  <si>
+    <t>L'operatore di back office, tramite interfaccia di gestione e log analysis,  ha evidenza dell'errore e può intervenire nella risoluzione del problema. Terminata la correzione del problema  l'operatore ritrasmette il certificato vaccinale.</t>
+  </si>
+  <si>
+    <t>L'operatore di back office, tramite interfaccia di gestione e log analysis, 
+riceve notifica e ha evidenza dell'errore: l'operatore procede con la gestione dell'errore. A problematica risolta, l'applicativo risottomette il certificato vaccinale per la validazione.</t>
   </si>
 </sst>
 </file>
@@ -5135,7 +5136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5275,9 +5276,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7812,10 +7810,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
+      <selection pane="bottomRight" activeCell="P378" sqref="P378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -7830,7 +7828,7 @@
     <col min="9" max="9" width="33.08984375" customWidth="1"/>
     <col min="10" max="10" width="27.08984375" customWidth="1"/>
     <col min="11" max="15" width="36.453125" customWidth="1"/>
-    <col min="16" max="16" width="33.453125" customWidth="1"/>
+    <col min="16" max="16" width="36.81640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="33.08984375" customWidth="1"/>
     <col min="18" max="18" width="36.453125" customWidth="1"/>
     <col min="19" max="20" width="31.81640625" customWidth="1"/>
@@ -7855,14 +7853,14 @@
       <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="71" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="70" t="s">
         <v>850</v>
       </c>
-      <c r="D2" s="70"/>
+      <c r="D2" s="69"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="35"/>
@@ -7880,14 +7878,14 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="78" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="77" t="s">
         <v>847</v>
       </c>
-      <c r="D3" s="79"/>
+      <c r="D3" s="78"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="35"/>
@@ -7905,12 +7903,12 @@
       <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A4" s="74"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="78" t="s">
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="77" t="s">
         <v>848</v>
       </c>
-      <c r="D4" s="79"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -7929,12 +7927,12 @@
       <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A5" s="76"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="78" t="s">
+      <c r="A5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="77" t="s">
         <v>849</v>
       </c>
-      <c r="D5" s="79"/>
+      <c r="D5" s="78"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="35"/>
@@ -7952,10 +7950,10 @@
       <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A6" s="67"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="53"/>
+      <c r="A6" s="66"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="52"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="35"/>
@@ -8532,14 +8530,14 @@
       <c r="F23" s="39">
         <v>45118</v>
       </c>
-      <c r="G23" s="58" t="s">
+      <c r="G23" s="57" t="s">
+        <v>900</v>
+      </c>
+      <c r="H23" s="58" t="s">
+        <v>901</v>
+      </c>
+      <c r="I23" s="58" t="s">
         <v>902</v>
-      </c>
-      <c r="H23" s="59" t="s">
-        <v>903</v>
-      </c>
-      <c r="I23" s="59" t="s">
-        <v>904</v>
       </c>
       <c r="J23" s="25" t="s">
         <v>137</v>
@@ -8578,14 +8576,14 @@
       <c r="F24" s="39">
         <v>45120</v>
       </c>
-      <c r="G24" s="60" t="s">
-        <v>912</v>
-      </c>
-      <c r="H24" s="66" t="s">
+      <c r="G24" s="59" t="s">
+        <v>910</v>
+      </c>
+      <c r="H24" s="65" t="s">
+        <v>906</v>
+      </c>
+      <c r="I24" s="60" t="s">
         <v>908</v>
-      </c>
-      <c r="I24" s="61" t="s">
-        <v>910</v>
       </c>
       <c r="J24" s="25" t="s">
         <v>137</v>
@@ -8624,16 +8622,16 @@
       <c r="F25" s="41">
         <v>45118</v>
       </c>
-      <c r="G25" s="64" t="s">
+      <c r="G25" s="63" t="s">
+        <v>903</v>
+      </c>
+      <c r="H25" s="64" t="s">
+        <v>904</v>
+      </c>
+      <c r="I25" s="64" t="s">
         <v>905</v>
       </c>
-      <c r="H25" s="65" t="s">
-        <v>906</v>
-      </c>
-      <c r="I25" s="65" t="s">
-        <v>907</v>
-      </c>
-      <c r="J25" s="63" t="s">
+      <c r="J25" s="62" t="s">
         <v>137</v>
       </c>
       <c r="K25" s="25"/>
@@ -8670,14 +8668,14 @@
       <c r="F26" s="39">
         <v>45120</v>
       </c>
-      <c r="G26" s="62" t="s">
-        <v>913</v>
-      </c>
-      <c r="H26" s="57" t="s">
+      <c r="G26" s="61" t="s">
+        <v>911</v>
+      </c>
+      <c r="H26" s="56" t="s">
+        <v>907</v>
+      </c>
+      <c r="I26" s="56" t="s">
         <v>909</v>
-      </c>
-      <c r="I26" s="57" t="s">
-        <v>911</v>
       </c>
       <c r="J26" s="25" t="s">
         <v>137</v>
@@ -9182,7 +9180,7 @@
         <v>137</v>
       </c>
       <c r="P40" s="50" t="s">
-        <v>901</v>
+        <v>912</v>
       </c>
       <c r="Q40" s="25" t="s">
         <v>844</v>
@@ -9474,7 +9472,7 @@
         <v>137</v>
       </c>
       <c r="P48" s="50" t="s">
-        <v>901</v>
+        <v>912</v>
       </c>
       <c r="Q48" s="25" t="s">
         <v>844</v>
@@ -11325,8 +11323,8 @@
       <c r="O101" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="P101" s="51" t="s">
-        <v>894</v>
+      <c r="P101" s="50" t="s">
+        <v>913</v>
       </c>
       <c r="Q101" s="25" t="s">
         <v>844</v>
@@ -11379,8 +11377,8 @@
       <c r="O102" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="P102" s="51" t="s">
-        <v>894</v>
+      <c r="P102" s="50" t="s">
+        <v>913</v>
       </c>
       <c r="Q102" s="25" t="s">
         <v>844</v>
@@ -11391,7 +11389,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="102" thickBot="1">
+    <row r="103" spans="1:20" ht="115" customHeight="1" thickBot="1">
       <c r="A103" s="20">
         <v>96</v>
       </c>
@@ -11410,14 +11408,14 @@
       <c r="F103" s="39">
         <v>45112</v>
       </c>
-      <c r="G103" s="56" t="s">
+      <c r="G103" s="55" t="s">
+        <v>897</v>
+      </c>
+      <c r="H103" s="54" t="s">
         <v>898</v>
       </c>
-      <c r="H103" s="55" t="s">
+      <c r="I103" s="54" t="s">
         <v>899</v>
-      </c>
-      <c r="I103" s="55" t="s">
-        <v>900</v>
       </c>
       <c r="J103" s="25" t="s">
         <v>137</v>
@@ -11433,8 +11431,8 @@
       <c r="O103" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="P103" s="51" t="s">
-        <v>894</v>
+      <c r="P103" s="50" t="s">
+        <v>913</v>
       </c>
       <c r="Q103" s="25" t="s">
         <v>844</v>
@@ -11487,8 +11485,8 @@
       <c r="O104" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="P104" s="51" t="s">
-        <v>894</v>
+      <c r="P104" s="50" t="s">
+        <v>913</v>
       </c>
       <c r="Q104" s="25" t="s">
         <v>844</v>
@@ -11541,8 +11539,8 @@
       <c r="O105" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="P105" s="51" t="s">
-        <v>894</v>
+      <c r="P105" s="50" t="s">
+        <v>913</v>
       </c>
       <c r="Q105" s="25" t="s">
         <v>844</v>
@@ -11595,8 +11593,8 @@
       <c r="O106" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="P106" s="51" t="s">
-        <v>894</v>
+      <c r="P106" s="50" t="s">
+        <v>913</v>
       </c>
       <c r="Q106" s="25" t="s">
         <v>844</v>
@@ -11607,7 +11605,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="102" thickBot="1">
+    <row r="107" spans="1:20" ht="124.5" customHeight="1" thickBot="1">
       <c r="A107" s="20">
         <v>100</v>
       </c>
@@ -11649,8 +11647,8 @@
       <c r="O107" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="P107" s="51" t="s">
-        <v>894</v>
+      <c r="P107" s="50" t="s">
+        <v>913</v>
       </c>
       <c r="Q107" s="25" t="s">
         <v>844</v>
@@ -11703,8 +11701,8 @@
       <c r="O108" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="P108" s="51" t="s">
-        <v>894</v>
+      <c r="P108" s="50" t="s">
+        <v>913</v>
       </c>
       <c r="Q108" s="25" t="s">
         <v>844</v>
@@ -11757,8 +11755,8 @@
       <c r="O109" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="P109" s="51" t="s">
-        <v>894</v>
+      <c r="P109" s="50" t="s">
+        <v>913</v>
       </c>
       <c r="Q109" s="25" t="s">
         <v>844</v>
@@ -11811,8 +11809,8 @@
       <c r="O110" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="P110" s="51" t="s">
-        <v>894</v>
+      <c r="P110" s="50" t="s">
+        <v>913</v>
       </c>
       <c r="Q110" s="25" t="s">
         <v>844</v>
@@ -11865,8 +11863,8 @@
       <c r="O111" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="P111" s="51" t="s">
-        <v>894</v>
+      <c r="P111" s="50" t="s">
+        <v>913</v>
       </c>
       <c r="Q111" s="25" t="s">
         <v>844</v>
@@ -11919,8 +11917,8 @@
       <c r="O112" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="P112" s="51" t="s">
-        <v>894</v>
+      <c r="P112" s="50" t="s">
+        <v>913</v>
       </c>
       <c r="Q112" s="25" t="s">
         <v>844</v>
@@ -11973,8 +11971,8 @@
       <c r="O113" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="P113" s="51" t="s">
-        <v>894</v>
+      <c r="P113" s="50" t="s">
+        <v>913</v>
       </c>
       <c r="Q113" s="25" t="s">
         <v>844</v>
@@ -20981,13 +20979,13 @@
         <v>45112</v>
       </c>
       <c r="G378" s="44" t="s">
+        <v>894</v>
+      </c>
+      <c r="H378" s="53" t="s">
         <v>895</v>
       </c>
-      <c r="H378" s="54" t="s">
+      <c r="I378" s="54" t="s">
         <v>896</v>
-      </c>
-      <c r="I378" s="55" t="s">
-        <v>897</v>
       </c>
       <c r="J378" s="25" t="s">
         <v>137</v>
@@ -28618,17 +28616,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="70009556-3c69-4fa2-8706-c9b0b9b7d526">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="51c831f1-5d9a-4441-8bf8-199ee50deca8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C32EC9A05D1971488222CFA27FFA4ED2" ma:contentTypeVersion="9" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="5231fc2ec8b6c7c260ea3efc6b54eff9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="70009556-3c69-4fa2-8706-c9b0b9b7d526" xmlns:ns3="51c831f1-5d9a-4441-8bf8-199ee50deca8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3970f1b8328047577bf08d3a024c33fc" ns2:_="" ns3:_="">
     <xsd:import namespace="70009556-3c69-4fa2-8706-c9b0b9b7d526"/>
@@ -28811,6 +28798,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="70009556-3c69-4fa2-8706-c9b0b9b7d526">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="51c831f1-5d9a-4441-8bf8-199ee50deca8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -28821,23 +28819,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84367454-FDC4-44F0-93EC-C61A93279732}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="51c831f1-5d9a-4441-8bf8-199ee50deca8"/>
-    <ds:schemaRef ds:uri="70009556-3c69-4fa2-8706-c9b0b9b7d526"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE393E8C-9B86-4D88-9515-7B1D1A1F164F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -28856,6 +28837,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84367454-FDC4-44F0-93EC-C61A93279732}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="51c831f1-5d9a-4441-8bf8-199ee50deca8"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="70009556-3c69-4fa2-8706-c9b0b9b7d526"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C50CF6B-1AFF-4A27-8275-695CD19C1DF9}">
   <ds:schemaRefs>
